--- a/medicine/Médecine vétérinaire/Nécrose_hypodermique_et_hématopoïétique_infectieuse/Nécrose_hypodermique_et_hématopoïétique_infectieuse.xlsx
+++ b/medicine/Médecine vétérinaire/Nécrose_hypodermique_et_hématopoïétique_infectieuse/Nécrose_hypodermique_et_hématopoïétique_infectieuse.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>N%C3%A9crose_hypodermique_et_h%C3%A9matopo%C3%AF%C3%A9tique_infectieuse</t>
+          <t>Nécrose_hypodermique_et_hématopoïétique_infectieuse</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,12 +490,14 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">La nécrose hypodermique et hématopoïétique infectieuse (NHHI) est une maladie virale qui affecte les crevettes de la famille des Penaeidae, provoquant une mortalité massive (jusqu'à 90 %) chez la crevette bleue (Penaeus stylirostris) et de graves déformations chez la crevette à pattes blanches (Penaeus vannamei).
 Cette maladie touche les crevettes d'élevage et les crevettes sauvages dans l'océan Pacifique, mais pas les crevettes sauvages des côtes américaines de l'océan Atlantique.
-Le secteur de l'élevage des crevettes a sélectionné plusieurs lignées de géniteurs tant de Penaeus stylirostris que de Penaeus vannamei qui sont immunes contre la NHHI[1].
-La maladie est provoquée par un virus à une seule chaîne d'ADN appelé simplement « virus NHHI », le plus petit des virus connus chez les crevettes pénaéides (22 nm)[2].
+Le secteur de l'élevage des crevettes a sélectionné plusieurs lignées de géniteurs tant de Penaeus stylirostris que de Penaeus vannamei qui sont immunes contre la NHHI.
+La maladie est provoquée par un virus à une seule chaîne d'ADN appelé simplement « virus NHHI », le plus petit des virus connus chez les crevettes pénaéides (22 nm).
 </t>
         </is>
       </c>
